--- a/public/DataUser/User.xlsx
+++ b/public/DataUser/User.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kerja\Raport\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,15 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>2022-01-11 02:55:19</t>
   </si>
   <si>
-    <t>Siswa 2</t>
+    <t>Hans</t>
   </si>
   <si>
-    <t>Andre</t>
+    <t>siswa</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,7 +158,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,48 +367,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <v>33333</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>22222</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/public/DataUser/User.xlsx
+++ b/public/DataUser/User.xlsx
@@ -1,39 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25209"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kerja\Raport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pratama\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B3DD79-7716-4875-98EE-183F5B8D2557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
-    <t>2022-01-11 02:55:19</t>
+    <t>2022-04-14 12:46:54</t>
   </si>
   <si>
-    <t>Hans</t>
+    <t>Irawan</t>
   </si>
   <si>
-    <t>siswa</t>
+    <t>guru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -158,7 +169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,7 +377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -375,7 +386,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -386,7 +397,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>33333</v>
+        <v>202020</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
